--- a/documents/modular_backplane.xlsx
+++ b/documents/modular_backplane.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\robot\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E670EC-6B23-419B-9B82-744E6210175A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCAFA92-FF42-4591-8279-0F0E4B363B13}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>name</t>
   </si>
@@ -150,10 +150,16 @@
     <t>42K resistor 1206</t>
   </si>
   <si>
-    <t>SSQ-104-02-T-S-RA</t>
-  </si>
-  <si>
     <t>4 pos female header</t>
+  </si>
+  <si>
+    <t>SSQ-108-02-T-S-RA</t>
+  </si>
+  <si>
+    <t>PREC002SAAN-RC</t>
+  </si>
+  <si>
+    <t>2pos male pin</t>
   </si>
 </sst>
 </file>
@@ -233,7 +239,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -244,6 +250,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -561,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,7 +634,7 @@
         <v>0.36</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E19" si="0">C3*D3</f>
+        <f t="shared" ref="E3:E20" si="0">C3*D3</f>
         <v>1.44</v>
       </c>
     </row>
@@ -685,64 +694,64 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="C7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7">
-        <v>0.55000000000000004</v>
+        <v>0.99</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>4.4000000000000004</v>
+        <v>8.91</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>39</v>
+        <v>44</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.26</v>
+        <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -757,187 +766,205 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>18</v>
+        <v>36</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>0.1</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0.60000000000000009</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14">
-        <v>0.56000000000000005</v>
+        <v>0.1</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>1.1200000000000001</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15">
-        <v>0.79</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>1.58</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16">
-        <v>0.2</v>
+        <v>0.79</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18">
-        <v>0.48</v>
+        <v>0.1</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>0.96</v>
-      </c>
-      <c r="K18" t="s">
-        <v>32</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>0.48</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>0.96</v>
+      </c>
+      <c r="K19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <f t="shared" si="0"/>
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="F20" s="2">
-        <f>SUM(E2:E19)</f>
-        <v>19.519999999999996</v>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="F21" s="2">
+        <f>SUM(E2:E20)</f>
+        <v>24.230000000000004</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://www.mouser.com/ProductDetail/Anderson-Power-Products/1327G6FP-BK?qs=sGAEpiMZZMtjzVbpKqo2YZRH3O%252bLIhj7O6NuhGz8QmQ%3d" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B11" r:id="rId2" display="https://www.mouser.com/ProductDetail/Vishay-Draloric/RCG120610K0FKEA?qs=sGAEpiMZZMtlubZbdhIBIPoOSO0NDdD6s2QsVimlF5w%3d" xr:uid="{048366D8-DBCA-4CC9-950F-971EEEE709E6}"/>
-    <hyperlink ref="B12" r:id="rId3" display="https://www.mouser.com/ProductDetail/Vishay/CRCW12066K80FKEA?qs=sGAEpiMZZMu61qfTUdNhG82Z6Ry1C7AqKV%2f0tV4qReU%3d" xr:uid="{F4028BA4-7796-49DB-AC7F-7A19FDA101C0}"/>
-    <hyperlink ref="B17" r:id="rId4" display="https://www.mouser.com/ProductDetail/Vishay-Vitramon/VJ1206Y682KXJCW1BC?qs=sGAEpiMZZMs0AnBnWHyRQCv4vfTUG%2fvHjiMgLHz2tc8%3d" xr:uid="{A3679260-7730-411D-B46A-7C8797DC15EE}"/>
-    <hyperlink ref="B16" r:id="rId5" display="https://www.mouser.com/ProductDetail/Vishay-Vitramon/VJ1206Y103JXXPW1BC?qs=sGAEpiMZZMs0AnBnWHyRQISGU2Vjexwg0JLYuBvdxzk%3d" xr:uid="{88D85A88-6276-4243-B75B-47A1D7DBFE55}"/>
-    <hyperlink ref="B15" r:id="rId6" display="https://www.mouser.com/ProductDetail/Pulse-Electronics/P0847SNL?qs=sGAEpiMZZMsg%252by3WlYCkUyBKyt5w5j49oTKhLZanK88%3d" xr:uid="{E9E00EE6-67B0-40DF-82E6-73FD4FF59406}"/>
-    <hyperlink ref="B14" r:id="rId7" display="https://www.mouser.com/ProductDetail/Diodes-Incorporated/DMP3028LK3-13?qs=sGAEpiMZZMshyDBzk1%2fWi0dsXOGve85x5DQW5%2fHSJfiRQfMKGbaKsA%3d%3d" xr:uid="{BB5BA008-4DC7-48F8-8E22-9A99C47A494E}"/>
-    <hyperlink ref="B9" r:id="rId8" display="https://www.mouser.com/ProductDetail/Vishay/CRCW120645K3FKEA?qs=sGAEpiMZZMtlubZbdhIBIF9gWuLpB6KWbymFEzcu60A%3d" xr:uid="{B1D9780B-CF37-4C42-A4B7-1D9DA2E521ED}"/>
-    <hyperlink ref="B10" r:id="rId9" display="https://www.mouser.com/ProductDetail/Vishay/CRCW120626K1FKEA?qs=sGAEpiMZZMtlubZbdhIBIMjSzHx9EKYElS1tAFCe3nc%3d" xr:uid="{007ED680-8D5C-4F77-A126-2B16DEF79344}"/>
+    <hyperlink ref="B12" r:id="rId2" display="https://www.mouser.com/ProductDetail/Vishay-Draloric/RCG120610K0FKEA?qs=sGAEpiMZZMtlubZbdhIBIPoOSO0NDdD6s2QsVimlF5w%3d" xr:uid="{048366D8-DBCA-4CC9-950F-971EEEE709E6}"/>
+    <hyperlink ref="B13" r:id="rId3" display="https://www.mouser.com/ProductDetail/Vishay/CRCW12066K80FKEA?qs=sGAEpiMZZMu61qfTUdNhG82Z6Ry1C7AqKV%2f0tV4qReU%3d" xr:uid="{F4028BA4-7796-49DB-AC7F-7A19FDA101C0}"/>
+    <hyperlink ref="B18" r:id="rId4" display="https://www.mouser.com/ProductDetail/Vishay-Vitramon/VJ1206Y682KXJCW1BC?qs=sGAEpiMZZMs0AnBnWHyRQCv4vfTUG%2fvHjiMgLHz2tc8%3d" xr:uid="{A3679260-7730-411D-B46A-7C8797DC15EE}"/>
+    <hyperlink ref="B17" r:id="rId5" display="https://www.mouser.com/ProductDetail/Vishay-Vitramon/VJ1206Y103JXXPW1BC?qs=sGAEpiMZZMs0AnBnWHyRQISGU2Vjexwg0JLYuBvdxzk%3d" xr:uid="{88D85A88-6276-4243-B75B-47A1D7DBFE55}"/>
+    <hyperlink ref="B16" r:id="rId6" display="https://www.mouser.com/ProductDetail/Pulse-Electronics/P0847SNL?qs=sGAEpiMZZMsg%252by3WlYCkUyBKyt5w5j49oTKhLZanK88%3d" xr:uid="{E9E00EE6-67B0-40DF-82E6-73FD4FF59406}"/>
+    <hyperlink ref="B15" r:id="rId7" display="https://www.mouser.com/ProductDetail/Diodes-Incorporated/DMP3028LK3-13?qs=sGAEpiMZZMshyDBzk1%2fWi0dsXOGve85x5DQW5%2fHSJfiRQfMKGbaKsA%3d%3d" xr:uid="{BB5BA008-4DC7-48F8-8E22-9A99C47A494E}"/>
+    <hyperlink ref="B10" r:id="rId8" display="https://www.mouser.com/ProductDetail/Vishay/CRCW120645K3FKEA?qs=sGAEpiMZZMtlubZbdhIBIF9gWuLpB6KWbymFEzcu60A%3d" xr:uid="{B1D9780B-CF37-4C42-A4B7-1D9DA2E521ED}"/>
+    <hyperlink ref="B11" r:id="rId9" display="https://www.mouser.com/ProductDetail/Vishay/CRCW120626K1FKEA?qs=sGAEpiMZZMtlubZbdhIBIMjSzHx9EKYElS1tAFCe3nc%3d" xr:uid="{007ED680-8D5C-4F77-A126-2B16DEF79344}"/>
     <hyperlink ref="B7" r:id="rId10" display="https://www.digikey.com/product-detail/en/samtec-inc/SSQ-104-02-T-S-RA/SAM1195-04-ND/1111408" xr:uid="{8A54FC70-0A20-4C95-96E1-5C58DFF3E1AC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/modular_backplane.xlsx
+++ b/documents/modular_backplane.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\robot\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCAFA92-FF42-4591-8279-0F0E4B363B13}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A441276-BAFD-4247-BBBF-59E36FE50D25}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>name</t>
   </si>
@@ -150,16 +150,25 @@
     <t>42K resistor 1206</t>
   </si>
   <si>
-    <t>4 pos female header</t>
-  </si>
-  <si>
-    <t>SSQ-108-02-T-S-RA</t>
-  </si>
-  <si>
     <t>PREC002SAAN-RC</t>
   </si>
   <si>
     <t>2pos male pin</t>
+  </si>
+  <si>
+    <t>14 pos female header</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PPPC072LJBN-RC</t>
+  </si>
+  <si>
+    <t>4.7k resistor 1206</t>
+  </si>
+  <si>
+    <t>PREC027DAAN-RC</t>
+  </si>
+  <si>
+    <t>54 pos male pin</t>
   </si>
 </sst>
 </file>
@@ -195,7 +204,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,6 +220,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0F0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,7 +254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -253,6 +268,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -570,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,7 +652,7 @@
         <v>0.36</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E20" si="0">C3*D3</f>
+        <f t="shared" ref="E3:E22" si="0">C3*D3</f>
         <v>1.44</v>
       </c>
     </row>
@@ -694,82 +712,82 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C7">
         <v>9</v>
       </c>
       <c r="D7">
-        <v>0.99</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>8.91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10.080000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>43</v>
+        <v>47</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0.2</v>
+        <v>0.93</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.60000000000000009</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.26</v>
+        <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -784,46 +802,44 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>18</v>
+        <v>36</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>0.1</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B13" s="1"/>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -838,136 +854,173 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15">
-        <v>0.56000000000000005</v>
+        <v>0.19</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>1.1200000000000001</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16">
-        <v>0.79</v>
+        <v>0.1</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>1.58</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17">
-        <v>0.2</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18">
-        <v>0.1</v>
+        <v>0.79</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19">
-        <v>0.48</v>
+        <v>0.2</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>0.96</v>
-      </c>
-      <c r="K19" t="s">
-        <v>32</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>0.1</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>0.48</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>0.96</v>
+      </c>
+      <c r="K21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20">
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E20">
+      <c r="E22">
         <f t="shared" si="0"/>
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="F21" s="2">
-        <f>SUM(E2:E20)</f>
-        <v>24.230000000000004</v>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="F23" s="2">
+        <f>SUM(E2:E22)</f>
+        <v>26.53</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://www.mouser.com/ProductDetail/Anderson-Power-Products/1327G6FP-BK?qs=sGAEpiMZZMtjzVbpKqo2YZRH3O%252bLIhj7O6NuhGz8QmQ%3d" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B12" r:id="rId2" display="https://www.mouser.com/ProductDetail/Vishay-Draloric/RCG120610K0FKEA?qs=sGAEpiMZZMtlubZbdhIBIPoOSO0NDdD6s2QsVimlF5w%3d" xr:uid="{048366D8-DBCA-4CC9-950F-971EEEE709E6}"/>
-    <hyperlink ref="B13" r:id="rId3" display="https://www.mouser.com/ProductDetail/Vishay/CRCW12066K80FKEA?qs=sGAEpiMZZMu61qfTUdNhG82Z6Ry1C7AqKV%2f0tV4qReU%3d" xr:uid="{F4028BA4-7796-49DB-AC7F-7A19FDA101C0}"/>
-    <hyperlink ref="B18" r:id="rId4" display="https://www.mouser.com/ProductDetail/Vishay-Vitramon/VJ1206Y682KXJCW1BC?qs=sGAEpiMZZMs0AnBnWHyRQCv4vfTUG%2fvHjiMgLHz2tc8%3d" xr:uid="{A3679260-7730-411D-B46A-7C8797DC15EE}"/>
-    <hyperlink ref="B17" r:id="rId5" display="https://www.mouser.com/ProductDetail/Vishay-Vitramon/VJ1206Y103JXXPW1BC?qs=sGAEpiMZZMs0AnBnWHyRQISGU2Vjexwg0JLYuBvdxzk%3d" xr:uid="{88D85A88-6276-4243-B75B-47A1D7DBFE55}"/>
-    <hyperlink ref="B16" r:id="rId6" display="https://www.mouser.com/ProductDetail/Pulse-Electronics/P0847SNL?qs=sGAEpiMZZMsg%252by3WlYCkUyBKyt5w5j49oTKhLZanK88%3d" xr:uid="{E9E00EE6-67B0-40DF-82E6-73FD4FF59406}"/>
-    <hyperlink ref="B15" r:id="rId7" display="https://www.mouser.com/ProductDetail/Diodes-Incorporated/DMP3028LK3-13?qs=sGAEpiMZZMshyDBzk1%2fWi0dsXOGve85x5DQW5%2fHSJfiRQfMKGbaKsA%3d%3d" xr:uid="{BB5BA008-4DC7-48F8-8E22-9A99C47A494E}"/>
-    <hyperlink ref="B10" r:id="rId8" display="https://www.mouser.com/ProductDetail/Vishay/CRCW120645K3FKEA?qs=sGAEpiMZZMtlubZbdhIBIF9gWuLpB6KWbymFEzcu60A%3d" xr:uid="{B1D9780B-CF37-4C42-A4B7-1D9DA2E521ED}"/>
-    <hyperlink ref="B11" r:id="rId9" display="https://www.mouser.com/ProductDetail/Vishay/CRCW120626K1FKEA?qs=sGAEpiMZZMtlubZbdhIBIMjSzHx9EKYElS1tAFCe3nc%3d" xr:uid="{007ED680-8D5C-4F77-A126-2B16DEF79344}"/>
+    <hyperlink ref="B14" r:id="rId2" display="https://www.mouser.com/ProductDetail/Vishay-Draloric/RCG120610K0FKEA?qs=sGAEpiMZZMtlubZbdhIBIPoOSO0NDdD6s2QsVimlF5w%3d" xr:uid="{048366D8-DBCA-4CC9-950F-971EEEE709E6}"/>
+    <hyperlink ref="B15" r:id="rId3" display="https://www.mouser.com/ProductDetail/Vishay/CRCW12066K80FKEA?qs=sGAEpiMZZMu61qfTUdNhG82Z6Ry1C7AqKV%2f0tV4qReU%3d" xr:uid="{F4028BA4-7796-49DB-AC7F-7A19FDA101C0}"/>
+    <hyperlink ref="B20" r:id="rId4" display="https://www.mouser.com/ProductDetail/Vishay-Vitramon/VJ1206Y682KXJCW1BC?qs=sGAEpiMZZMs0AnBnWHyRQCv4vfTUG%2fvHjiMgLHz2tc8%3d" xr:uid="{A3679260-7730-411D-B46A-7C8797DC15EE}"/>
+    <hyperlink ref="B19" r:id="rId5" display="https://www.mouser.com/ProductDetail/Vishay-Vitramon/VJ1206Y103JXXPW1BC?qs=sGAEpiMZZMs0AnBnWHyRQISGU2Vjexwg0JLYuBvdxzk%3d" xr:uid="{88D85A88-6276-4243-B75B-47A1D7DBFE55}"/>
+    <hyperlink ref="B18" r:id="rId6" display="https://www.mouser.com/ProductDetail/Pulse-Electronics/P0847SNL?qs=sGAEpiMZZMsg%252by3WlYCkUyBKyt5w5j49oTKhLZanK88%3d" xr:uid="{E9E00EE6-67B0-40DF-82E6-73FD4FF59406}"/>
+    <hyperlink ref="B17" r:id="rId7" display="https://www.mouser.com/ProductDetail/Diodes-Incorporated/DMP3028LK3-13?qs=sGAEpiMZZMshyDBzk1%2fWi0dsXOGve85x5DQW5%2fHSJfiRQfMKGbaKsA%3d%3d" xr:uid="{BB5BA008-4DC7-48F8-8E22-9A99C47A494E}"/>
+    <hyperlink ref="B11" r:id="rId8" display="https://www.mouser.com/ProductDetail/Vishay/CRCW120645K3FKEA?qs=sGAEpiMZZMtlubZbdhIBIF9gWuLpB6KWbymFEzcu60A%3d" xr:uid="{B1D9780B-CF37-4C42-A4B7-1D9DA2E521ED}"/>
+    <hyperlink ref="B12" r:id="rId9" display="https://www.mouser.com/ProductDetail/Vishay/CRCW120626K1FKEA?qs=sGAEpiMZZMtlubZbdhIBIMjSzHx9EKYElS1tAFCe3nc%3d" xr:uid="{007ED680-8D5C-4F77-A126-2B16DEF79344}"/>
     <hyperlink ref="B7" r:id="rId10" display="https://www.digikey.com/product-detail/en/samtec-inc/SSQ-104-02-T-S-RA/SAM1195-04-ND/1111408" xr:uid="{8A54FC70-0A20-4C95-96E1-5C58DFF3E1AC}"/>
+    <hyperlink ref="B8" r:id="rId11" display="https://www.digikey.com/product-detail/en/sullins-connector-solutions/PREC027DAAN-RC/S2012EC-27-ND/2774867" xr:uid="{87A71BCA-DB77-4D00-BBBA-EAAE5553BAE5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/documents/modular_backplane.xlsx
+++ b/documents/modular_backplane.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\robot\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A441276-BAFD-4247-BBBF-59E36FE50D25}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDB83F5-0ABC-42C5-A589-9C7EDCE61571}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,12 +111,6 @@
     <t>VJ1206Y682KXXCW1BC</t>
   </si>
   <si>
-    <t>6100-150K-RC</t>
-  </si>
-  <si>
-    <t>inductor 15uH</t>
-  </si>
-  <si>
     <t>DMP3028LK3-13</t>
   </si>
   <si>
@@ -169,6 +163,12 @@
   </si>
   <si>
     <t>54 pos male pin</t>
+  </si>
+  <si>
+    <t>inductor 10uH</t>
+  </si>
+  <si>
+    <t>RCH8011NP-100L</t>
   </si>
 </sst>
 </file>
@@ -591,7 +591,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,10 +694,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C7">
         <v>9</v>
@@ -730,10 +730,10 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -748,10 +748,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -766,10 +766,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -784,10 +784,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -802,10 +802,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -820,7 +820,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13">
@@ -890,10 +890,10 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -908,20 +908,20 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18">
-        <v>0.79</v>
+        <v>0.36</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>1.58</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -978,7 +978,7 @@
         <v>0.96</v>
       </c>
       <c r="K21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1003,7 +1003,7 @@
       <c r="B23" s="3"/>
       <c r="F23" s="2">
         <f>SUM(E2:E22)</f>
-        <v>26.53</v>
+        <v>25.67</v>
       </c>
     </row>
   </sheetData>

--- a/documents/modular_backplane.xlsx
+++ b/documents/modular_backplane.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\robot\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDB83F5-0ABC-42C5-A589-9C7EDCE61571}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC64ADDB-A106-486E-A194-D9BDA0EE110E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>name</t>
   </si>
@@ -169,6 +169,15 @@
   </si>
   <si>
     <t>RCH8011NP-100L</t>
+  </si>
+  <si>
+    <t>6100-150K-RC</t>
+  </si>
+  <si>
+    <t>15uh inductor</t>
+  </si>
+  <si>
+    <t>120k resistor 1206</t>
   </si>
 </sst>
 </file>
@@ -588,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,7 +661,7 @@
         <v>0.36</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E22" si="0">C3*D3</f>
+        <f t="shared" ref="E3:E24" si="0">C3*D3</f>
         <v>1.44</v>
       </c>
     </row>
@@ -682,14 +691,14 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>0.94</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>1.88</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -784,28 +793,26 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B11" s="6"/>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -820,27 +827,27 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>0.1</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B14" s="1"/>
       <c r="C14">
         <v>2</v>
       </c>
@@ -854,169 +861,205 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>0.38</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.57000000000000006</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>0.56000000000000005</v>
+        <v>0.1</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>1.1200000000000001</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18">
-        <v>0.36</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>0.72</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0.2</v>
+        <v>0.79</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20">
-        <v>0.1</v>
+        <v>0.36</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21">
-        <v>0.48</v>
+        <v>0.2</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>0.96</v>
-      </c>
-      <c r="K21" t="s">
-        <v>30</v>
+        <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>0.1</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>0.48</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>1.44</v>
+      </c>
+      <c r="K23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22">
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="F23" s="2">
-        <f>SUM(E2:E22)</f>
-        <v>25.67</v>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>0.84000000000000008</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="F25" s="2">
+        <f>SUM(E2:E24)</f>
+        <v>28.980000000000011</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://www.mouser.com/ProductDetail/Anderson-Power-Products/1327G6FP-BK?qs=sGAEpiMZZMtjzVbpKqo2YZRH3O%252bLIhj7O6NuhGz8QmQ%3d" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B14" r:id="rId2" display="https://www.mouser.com/ProductDetail/Vishay-Draloric/RCG120610K0FKEA?qs=sGAEpiMZZMtlubZbdhIBIPoOSO0NDdD6s2QsVimlF5w%3d" xr:uid="{048366D8-DBCA-4CC9-950F-971EEEE709E6}"/>
-    <hyperlink ref="B15" r:id="rId3" display="https://www.mouser.com/ProductDetail/Vishay/CRCW12066K80FKEA?qs=sGAEpiMZZMu61qfTUdNhG82Z6Ry1C7AqKV%2f0tV4qReU%3d" xr:uid="{F4028BA4-7796-49DB-AC7F-7A19FDA101C0}"/>
-    <hyperlink ref="B20" r:id="rId4" display="https://www.mouser.com/ProductDetail/Vishay-Vitramon/VJ1206Y682KXJCW1BC?qs=sGAEpiMZZMs0AnBnWHyRQCv4vfTUG%2fvHjiMgLHz2tc8%3d" xr:uid="{A3679260-7730-411D-B46A-7C8797DC15EE}"/>
-    <hyperlink ref="B19" r:id="rId5" display="https://www.mouser.com/ProductDetail/Vishay-Vitramon/VJ1206Y103JXXPW1BC?qs=sGAEpiMZZMs0AnBnWHyRQISGU2Vjexwg0JLYuBvdxzk%3d" xr:uid="{88D85A88-6276-4243-B75B-47A1D7DBFE55}"/>
-    <hyperlink ref="B18" r:id="rId6" display="https://www.mouser.com/ProductDetail/Pulse-Electronics/P0847SNL?qs=sGAEpiMZZMsg%252by3WlYCkUyBKyt5w5j49oTKhLZanK88%3d" xr:uid="{E9E00EE6-67B0-40DF-82E6-73FD4FF59406}"/>
-    <hyperlink ref="B17" r:id="rId7" display="https://www.mouser.com/ProductDetail/Diodes-Incorporated/DMP3028LK3-13?qs=sGAEpiMZZMshyDBzk1%2fWi0dsXOGve85x5DQW5%2fHSJfiRQfMKGbaKsA%3d%3d" xr:uid="{BB5BA008-4DC7-48F8-8E22-9A99C47A494E}"/>
-    <hyperlink ref="B11" r:id="rId8" display="https://www.mouser.com/ProductDetail/Vishay/CRCW120645K3FKEA?qs=sGAEpiMZZMtlubZbdhIBIF9gWuLpB6KWbymFEzcu60A%3d" xr:uid="{B1D9780B-CF37-4C42-A4B7-1D9DA2E521ED}"/>
-    <hyperlink ref="B12" r:id="rId9" display="https://www.mouser.com/ProductDetail/Vishay/CRCW120626K1FKEA?qs=sGAEpiMZZMtlubZbdhIBIMjSzHx9EKYElS1tAFCe3nc%3d" xr:uid="{007ED680-8D5C-4F77-A126-2B16DEF79344}"/>
+    <hyperlink ref="B15" r:id="rId2" display="https://www.mouser.com/ProductDetail/Vishay-Draloric/RCG120610K0FKEA?qs=sGAEpiMZZMtlubZbdhIBIPoOSO0NDdD6s2QsVimlF5w%3d" xr:uid="{048366D8-DBCA-4CC9-950F-971EEEE709E6}"/>
+    <hyperlink ref="B16" r:id="rId3" display="https://www.mouser.com/ProductDetail/Vishay/CRCW12066K80FKEA?qs=sGAEpiMZZMu61qfTUdNhG82Z6Ry1C7AqKV%2f0tV4qReU%3d" xr:uid="{F4028BA4-7796-49DB-AC7F-7A19FDA101C0}"/>
+    <hyperlink ref="B22" r:id="rId4" display="https://www.mouser.com/ProductDetail/Vishay-Vitramon/VJ1206Y682KXJCW1BC?qs=sGAEpiMZZMs0AnBnWHyRQCv4vfTUG%2fvHjiMgLHz2tc8%3d" xr:uid="{A3679260-7730-411D-B46A-7C8797DC15EE}"/>
+    <hyperlink ref="B21" r:id="rId5" display="https://www.mouser.com/ProductDetail/Vishay-Vitramon/VJ1206Y103JXXPW1BC?qs=sGAEpiMZZMs0AnBnWHyRQISGU2Vjexwg0JLYuBvdxzk%3d" xr:uid="{88D85A88-6276-4243-B75B-47A1D7DBFE55}"/>
+    <hyperlink ref="B20" r:id="rId6" display="https://www.mouser.com/ProductDetail/Pulse-Electronics/P0847SNL?qs=sGAEpiMZZMsg%252by3WlYCkUyBKyt5w5j49oTKhLZanK88%3d" xr:uid="{E9E00EE6-67B0-40DF-82E6-73FD4FF59406}"/>
+    <hyperlink ref="B18" r:id="rId7" display="https://www.mouser.com/ProductDetail/Diodes-Incorporated/DMP3028LK3-13?qs=sGAEpiMZZMshyDBzk1%2fWi0dsXOGve85x5DQW5%2fHSJfiRQfMKGbaKsA%3d%3d" xr:uid="{BB5BA008-4DC7-48F8-8E22-9A99C47A494E}"/>
+    <hyperlink ref="B12" r:id="rId8" display="https://www.mouser.com/ProductDetail/Vishay/CRCW120645K3FKEA?qs=sGAEpiMZZMtlubZbdhIBIF9gWuLpB6KWbymFEzcu60A%3d" xr:uid="{B1D9780B-CF37-4C42-A4B7-1D9DA2E521ED}"/>
+    <hyperlink ref="B13" r:id="rId9" display="https://www.mouser.com/ProductDetail/Vishay/CRCW120626K1FKEA?qs=sGAEpiMZZMtlubZbdhIBIMjSzHx9EKYElS1tAFCe3nc%3d" xr:uid="{007ED680-8D5C-4F77-A126-2B16DEF79344}"/>
     <hyperlink ref="B7" r:id="rId10" display="https://www.digikey.com/product-detail/en/samtec-inc/SSQ-104-02-T-S-RA/SAM1195-04-ND/1111408" xr:uid="{8A54FC70-0A20-4C95-96E1-5C58DFF3E1AC}"/>
     <hyperlink ref="B8" r:id="rId11" display="https://www.digikey.com/product-detail/en/sullins-connector-solutions/PREC027DAAN-RC/S2012EC-27-ND/2774867" xr:uid="{87A71BCA-DB77-4D00-BBBA-EAAE5553BAE5}"/>
   </hyperlinks>

--- a/documents/modular_backplane.xlsx
+++ b/documents/modular_backplane.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\robot\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC64ADDB-A106-486E-A194-D9BDA0EE110E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9082586D-488E-41AB-91E9-EBCF395A61DE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>name</t>
   </si>
@@ -159,25 +159,19 @@
     <t>4.7k resistor 1206</t>
   </si>
   <si>
-    <t>PREC027DAAN-RC</t>
-  </si>
-  <si>
-    <t>54 pos male pin</t>
-  </si>
-  <si>
     <t>inductor 10uH</t>
   </si>
   <si>
     <t>RCH8011NP-100L</t>
   </si>
   <si>
-    <t>6100-150K-RC</t>
-  </si>
-  <si>
-    <t>15uh inductor</t>
-  </si>
-  <si>
     <t>120k resistor 1206</t>
+  </si>
+  <si>
+    <t>PREC024DAAN-RC</t>
+  </si>
+  <si>
+    <t>48 pos male pin</t>
   </si>
 </sst>
 </file>
@@ -597,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,7 +655,7 @@
         <v>0.36</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E24" si="0">C3*D3</f>
+        <f t="shared" ref="E3:E23" si="0">C3*D3</f>
         <v>1.44</v>
       </c>
     </row>
@@ -709,14 +703,14 @@
         <v>35</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>0.56000000000000005</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>1.1200000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -727,32 +721,32 @@
         <v>42</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>1.1200000000000001</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>10.080000000000002</v>
+        <v>8.9600000000000009</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.93</v>
+        <v>1.08</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.93</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -763,14 +757,14 @@
         <v>39</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>0.2</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.60000000000000009</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -781,19 +775,19 @@
         <v>37</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>0.13</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11">
@@ -867,14 +861,14 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15">
         <v>0.1</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -933,120 +927,102 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>0.79</v>
+        <v>0.36</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>0.79</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>0.36</v>
+        <v>0.2</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>0.72</v>
+        <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
       <c r="D21">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>0.60000000000000009</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
       <c r="D22">
-        <v>0.1</v>
+        <v>0.48</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
+        <v>1.44</v>
+      </c>
+      <c r="K22" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="C23">
         <v>3</v>
       </c>
       <c r="D23">
-        <v>0.48</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>1.44</v>
-      </c>
-      <c r="K23" t="s">
-        <v>30</v>
+        <v>0.84000000000000008</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="D24">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="0"/>
-        <v>0.84000000000000008</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
-      <c r="F25" s="2">
-        <f>SUM(E2:E24)</f>
-        <v>28.980000000000011</v>
+      <c r="B24" s="3"/>
+      <c r="F24" s="2">
+        <f>SUM(E2:E23)</f>
+        <v>26.890000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -1054,9 +1030,9 @@
     <hyperlink ref="B3" r:id="rId1" display="https://www.mouser.com/ProductDetail/Anderson-Power-Products/1327G6FP-BK?qs=sGAEpiMZZMtjzVbpKqo2YZRH3O%252bLIhj7O6NuhGz8QmQ%3d" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B15" r:id="rId2" display="https://www.mouser.com/ProductDetail/Vishay-Draloric/RCG120610K0FKEA?qs=sGAEpiMZZMtlubZbdhIBIPoOSO0NDdD6s2QsVimlF5w%3d" xr:uid="{048366D8-DBCA-4CC9-950F-971EEEE709E6}"/>
     <hyperlink ref="B16" r:id="rId3" display="https://www.mouser.com/ProductDetail/Vishay/CRCW12066K80FKEA?qs=sGAEpiMZZMu61qfTUdNhG82Z6Ry1C7AqKV%2f0tV4qReU%3d" xr:uid="{F4028BA4-7796-49DB-AC7F-7A19FDA101C0}"/>
-    <hyperlink ref="B22" r:id="rId4" display="https://www.mouser.com/ProductDetail/Vishay-Vitramon/VJ1206Y682KXJCW1BC?qs=sGAEpiMZZMs0AnBnWHyRQCv4vfTUG%2fvHjiMgLHz2tc8%3d" xr:uid="{A3679260-7730-411D-B46A-7C8797DC15EE}"/>
-    <hyperlink ref="B21" r:id="rId5" display="https://www.mouser.com/ProductDetail/Vishay-Vitramon/VJ1206Y103JXXPW1BC?qs=sGAEpiMZZMs0AnBnWHyRQISGU2Vjexwg0JLYuBvdxzk%3d" xr:uid="{88D85A88-6276-4243-B75B-47A1D7DBFE55}"/>
-    <hyperlink ref="B20" r:id="rId6" display="https://www.mouser.com/ProductDetail/Pulse-Electronics/P0847SNL?qs=sGAEpiMZZMsg%252by3WlYCkUyBKyt5w5j49oTKhLZanK88%3d" xr:uid="{E9E00EE6-67B0-40DF-82E6-73FD4FF59406}"/>
+    <hyperlink ref="B21" r:id="rId4" display="https://www.mouser.com/ProductDetail/Vishay-Vitramon/VJ1206Y682KXJCW1BC?qs=sGAEpiMZZMs0AnBnWHyRQCv4vfTUG%2fvHjiMgLHz2tc8%3d" xr:uid="{A3679260-7730-411D-B46A-7C8797DC15EE}"/>
+    <hyperlink ref="B20" r:id="rId5" display="https://www.mouser.com/ProductDetail/Vishay-Vitramon/VJ1206Y103JXXPW1BC?qs=sGAEpiMZZMs0AnBnWHyRQISGU2Vjexwg0JLYuBvdxzk%3d" xr:uid="{88D85A88-6276-4243-B75B-47A1D7DBFE55}"/>
+    <hyperlink ref="B19" r:id="rId6" display="https://www.mouser.com/ProductDetail/Pulse-Electronics/P0847SNL?qs=sGAEpiMZZMsg%252by3WlYCkUyBKyt5w5j49oTKhLZanK88%3d" xr:uid="{E9E00EE6-67B0-40DF-82E6-73FD4FF59406}"/>
     <hyperlink ref="B18" r:id="rId7" display="https://www.mouser.com/ProductDetail/Diodes-Incorporated/DMP3028LK3-13?qs=sGAEpiMZZMshyDBzk1%2fWi0dsXOGve85x5DQW5%2fHSJfiRQfMKGbaKsA%3d%3d" xr:uid="{BB5BA008-4DC7-48F8-8E22-9A99C47A494E}"/>
     <hyperlink ref="B12" r:id="rId8" display="https://www.mouser.com/ProductDetail/Vishay/CRCW120645K3FKEA?qs=sGAEpiMZZMtlubZbdhIBIF9gWuLpB6KWbymFEzcu60A%3d" xr:uid="{B1D9780B-CF37-4C42-A4B7-1D9DA2E521ED}"/>
     <hyperlink ref="B13" r:id="rId9" display="https://www.mouser.com/ProductDetail/Vishay/CRCW120626K1FKEA?qs=sGAEpiMZZMtlubZbdhIBIMjSzHx9EKYElS1tAFCe3nc%3d" xr:uid="{007ED680-8D5C-4F77-A126-2B16DEF79344}"/>

--- a/documents/modular_backplane.xlsx
+++ b/documents/modular_backplane.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\robot\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9082586D-488E-41AB-91E9-EBCF395A61DE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA56786A-AE6F-46FB-8BBF-C81856FCAA55}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>name</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>48 pos male pin</t>
+  </si>
+  <si>
+    <t>200k resistor 1206</t>
   </si>
 </sst>
 </file>
@@ -591,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,7 +658,7 @@
         <v>0.36</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E23" si="0">C3*D3</f>
+        <f t="shared" ref="E3:E24" si="0">C3*D3</f>
         <v>1.44</v>
       </c>
     </row>
@@ -787,44 +790,42 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11">
         <v>0.13</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0.13</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B12" s="6"/>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -839,203 +840,221 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>0.1</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B15" s="1"/>
       <c r="C15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>0.1</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>0.57000000000000006</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
       <c r="D17">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
+        <v>0.57000000000000006</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>0.56000000000000005</v>
+        <v>0.1</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>1.1200000000000001</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>0.36</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>1.08</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C20">
         <v>3</v>
       </c>
       <c r="D20">
-        <v>0.2</v>
+        <v>0.36</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>0.60000000000000009</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
       <c r="D21">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
+        <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
       <c r="D22">
-        <v>0.48</v>
+        <v>0.1</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>1.44</v>
-      </c>
-      <c r="K22" t="s">
-        <v>30</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C23">
         <v>3</v>
       </c>
       <c r="D23">
+        <v>0.48</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>1.44</v>
+      </c>
+      <c r="K23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <f t="shared" si="0"/>
         <v>0.84000000000000008</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="F24" s="2">
-        <f>SUM(E2:E23)</f>
-        <v>26.890000000000004</v>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="F25" s="2">
+        <f>SUM(E2:E24)</f>
+        <v>27.280000000000005</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://www.mouser.com/ProductDetail/Anderson-Power-Products/1327G6FP-BK?qs=sGAEpiMZZMtjzVbpKqo2YZRH3O%252bLIhj7O6NuhGz8QmQ%3d" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B15" r:id="rId2" display="https://www.mouser.com/ProductDetail/Vishay-Draloric/RCG120610K0FKEA?qs=sGAEpiMZZMtlubZbdhIBIPoOSO0NDdD6s2QsVimlF5w%3d" xr:uid="{048366D8-DBCA-4CC9-950F-971EEEE709E6}"/>
-    <hyperlink ref="B16" r:id="rId3" display="https://www.mouser.com/ProductDetail/Vishay/CRCW12066K80FKEA?qs=sGAEpiMZZMu61qfTUdNhG82Z6Ry1C7AqKV%2f0tV4qReU%3d" xr:uid="{F4028BA4-7796-49DB-AC7F-7A19FDA101C0}"/>
-    <hyperlink ref="B21" r:id="rId4" display="https://www.mouser.com/ProductDetail/Vishay-Vitramon/VJ1206Y682KXJCW1BC?qs=sGAEpiMZZMs0AnBnWHyRQCv4vfTUG%2fvHjiMgLHz2tc8%3d" xr:uid="{A3679260-7730-411D-B46A-7C8797DC15EE}"/>
-    <hyperlink ref="B20" r:id="rId5" display="https://www.mouser.com/ProductDetail/Vishay-Vitramon/VJ1206Y103JXXPW1BC?qs=sGAEpiMZZMs0AnBnWHyRQISGU2Vjexwg0JLYuBvdxzk%3d" xr:uid="{88D85A88-6276-4243-B75B-47A1D7DBFE55}"/>
-    <hyperlink ref="B19" r:id="rId6" display="https://www.mouser.com/ProductDetail/Pulse-Electronics/P0847SNL?qs=sGAEpiMZZMsg%252by3WlYCkUyBKyt5w5j49oTKhLZanK88%3d" xr:uid="{E9E00EE6-67B0-40DF-82E6-73FD4FF59406}"/>
-    <hyperlink ref="B18" r:id="rId7" display="https://www.mouser.com/ProductDetail/Diodes-Incorporated/DMP3028LK3-13?qs=sGAEpiMZZMshyDBzk1%2fWi0dsXOGve85x5DQW5%2fHSJfiRQfMKGbaKsA%3d%3d" xr:uid="{BB5BA008-4DC7-48F8-8E22-9A99C47A494E}"/>
-    <hyperlink ref="B12" r:id="rId8" display="https://www.mouser.com/ProductDetail/Vishay/CRCW120645K3FKEA?qs=sGAEpiMZZMtlubZbdhIBIF9gWuLpB6KWbymFEzcu60A%3d" xr:uid="{B1D9780B-CF37-4C42-A4B7-1D9DA2E521ED}"/>
-    <hyperlink ref="B13" r:id="rId9" display="https://www.mouser.com/ProductDetail/Vishay/CRCW120626K1FKEA?qs=sGAEpiMZZMtlubZbdhIBIMjSzHx9EKYElS1tAFCe3nc%3d" xr:uid="{007ED680-8D5C-4F77-A126-2B16DEF79344}"/>
+    <hyperlink ref="B16" r:id="rId2" display="https://www.mouser.com/ProductDetail/Vishay-Draloric/RCG120610K0FKEA?qs=sGAEpiMZZMtlubZbdhIBIPoOSO0NDdD6s2QsVimlF5w%3d" xr:uid="{048366D8-DBCA-4CC9-950F-971EEEE709E6}"/>
+    <hyperlink ref="B17" r:id="rId3" display="https://www.mouser.com/ProductDetail/Vishay/CRCW12066K80FKEA?qs=sGAEpiMZZMu61qfTUdNhG82Z6Ry1C7AqKV%2f0tV4qReU%3d" xr:uid="{F4028BA4-7796-49DB-AC7F-7A19FDA101C0}"/>
+    <hyperlink ref="B22" r:id="rId4" display="https://www.mouser.com/ProductDetail/Vishay-Vitramon/VJ1206Y682KXJCW1BC?qs=sGAEpiMZZMs0AnBnWHyRQCv4vfTUG%2fvHjiMgLHz2tc8%3d" xr:uid="{A3679260-7730-411D-B46A-7C8797DC15EE}"/>
+    <hyperlink ref="B21" r:id="rId5" display="https://www.mouser.com/ProductDetail/Vishay-Vitramon/VJ1206Y103JXXPW1BC?qs=sGAEpiMZZMs0AnBnWHyRQISGU2Vjexwg0JLYuBvdxzk%3d" xr:uid="{88D85A88-6276-4243-B75B-47A1D7DBFE55}"/>
+    <hyperlink ref="B20" r:id="rId6" display="https://www.mouser.com/ProductDetail/Pulse-Electronics/P0847SNL?qs=sGAEpiMZZMsg%252by3WlYCkUyBKyt5w5j49oTKhLZanK88%3d" xr:uid="{E9E00EE6-67B0-40DF-82E6-73FD4FF59406}"/>
+    <hyperlink ref="B19" r:id="rId7" display="https://www.mouser.com/ProductDetail/Diodes-Incorporated/DMP3028LK3-13?qs=sGAEpiMZZMshyDBzk1%2fWi0dsXOGve85x5DQW5%2fHSJfiRQfMKGbaKsA%3d%3d" xr:uid="{BB5BA008-4DC7-48F8-8E22-9A99C47A494E}"/>
+    <hyperlink ref="B13" r:id="rId8" display="https://www.mouser.com/ProductDetail/Vishay/CRCW120645K3FKEA?qs=sGAEpiMZZMtlubZbdhIBIF9gWuLpB6KWbymFEzcu60A%3d" xr:uid="{B1D9780B-CF37-4C42-A4B7-1D9DA2E521ED}"/>
+    <hyperlink ref="B14" r:id="rId9" display="https://www.mouser.com/ProductDetail/Vishay/CRCW120626K1FKEA?qs=sGAEpiMZZMtlubZbdhIBIMjSzHx9EKYElS1tAFCe3nc%3d" xr:uid="{007ED680-8D5C-4F77-A126-2B16DEF79344}"/>
     <hyperlink ref="B7" r:id="rId10" display="https://www.digikey.com/product-detail/en/samtec-inc/SSQ-104-02-T-S-RA/SAM1195-04-ND/1111408" xr:uid="{8A54FC70-0A20-4C95-96E1-5C58DFF3E1AC}"/>
     <hyperlink ref="B8" r:id="rId11" display="https://www.digikey.com/product-detail/en/sullins-connector-solutions/PREC027DAAN-RC/S2012EC-27-ND/2774867" xr:uid="{87A71BCA-DB77-4D00-BBBA-EAAE5553BAE5}"/>
   </hyperlinks>
